--- a/visuals_fpr.xlsx
+++ b/visuals_fpr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\ids_svm_slidingwindow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D660BD8-49DE-47BE-B15C-533221921739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E3F4AB-7F2E-404D-83B5-D48F58F6D632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46635" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{98CE00A9-67AA-4A44-AE27-C214198053F7}"/>
+    <workbookView xWindow="47445" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{98CE00A9-67AA-4A44-AE27-C214198053F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,69 +113,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>False</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Positive Rates (FPR) By Attack</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13056714785651796"/>
+          <c:y val="4.1666666666666664E-2"/>
+          <c:w val="0.82556627296587926"/>
+          <c:h val="0.71572543015456402"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -399,6 +349,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Attack Type</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -464,6 +469,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>False Positive Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1465,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D759A5D3-604B-4B18-A5C2-B1DD4075FFC5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/visuals_fpr.xlsx
+++ b/visuals_fpr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\ids_svm_slidingwindow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mountrouidoux/Documents/GitHub/ids_svm_slidingwindow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E3F4AB-7F2E-404D-83B5-D48F58F6D632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991B2E8D-C0D6-2D46-80F0-DD4F8536FA2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47445" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{98CE00A9-67AA-4A44-AE27-C214198053F7}"/>
+    <workbookView xWindow="7200" yWindow="2100" windowWidth="21600" windowHeight="11380" xr2:uid="{98CE00A9-67AA-4A44-AE27-C214198053F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>FPR for CV 1</c:v>
+            <c:v>FPR for Split 1</c:v>
           </c:tx>
           <c:spPr>
             <a:pattFill prst="wdDnDiag">
@@ -202,7 +202,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>FPR for CV2</c:v>
+            <c:v>FPR for Split 2</c:v>
           </c:tx>
           <c:spPr>
             <a:pattFill prst="pct90">
@@ -270,7 +270,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Average FPR Across CV1 and CV2</c:v>
+            <c:v>Average FPR Across Runs</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -356,7 +356,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -369,12 +369,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Attack Type</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47172210485884386"/>
+              <c:y val="0.84890492855059785"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -388,7 +396,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -426,7 +434,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -476,7 +484,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -489,7 +497,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>False Positive Rate</a:t>
                 </a:r>
               </a:p>
@@ -508,7 +516,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -540,7 +548,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -569,6 +577,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4595352410217022E-2"/>
+          <c:y val="0.90507618839311754"/>
+          <c:w val="0.87080929517956596"/>
+          <c:h val="9.4923811606882472E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -582,7 +600,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1525,20 +1543,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D759A5D3-604B-4B18-A5C2-B1DD4075FFC5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.3433951033067502E-2</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>0.28159943797201498</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5.6602052451539299E-2</v>
       </c>
@@ -1580,7 +1598,7 @@
         <v>0.144904717954286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.3433951033067502E-2</v>
       </c>
@@ -1608,7 +1626,7 @@
         <v>0.28159943797201498</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5.6602052451539299E-2</v>
       </c>
@@ -1622,7 +1640,7 @@
         <v>0.144904717954286</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>AVERAGE(A7:A8)</f>
         <v>4.0018001742303397E-2</v>
